--- a/HC_Carteras_propias.xlsx
+++ b/HC_Carteras_propias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46952B2E-8DCB-954F-864D-F0038FCC538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000951B3-6058-C746-846C-8734C2463E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16080" xr2:uid="{CE3D1765-37E3-48B3-B4D2-FF6910995400}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16020" xr2:uid="{CE3D1765-37E3-48B3-B4D2-FF6910995400}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Documento</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>Jose Andres Toro Correa</t>
+  </si>
+  <si>
+    <t>Paula Andrea Martínez Neira</t>
+  </si>
+  <si>
+    <t>Javier Alejandro Angarita Prada</t>
+  </si>
+  <si>
+    <t>Juana Valeria Tibaguy Sierra</t>
+  </si>
+  <si>
+    <t>Carlos Emilio Riascos Angulo</t>
   </si>
 </sst>
 </file>
@@ -707,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67628BB9-8091-4766-8102-51505102CCD5}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1047,25 +1059,57 @@
         <v>41</v>
       </c>
     </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>1010213899</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>1232399996</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>1001299432</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>1006187617</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A14">
+    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A16">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A41">
-    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
+  <conditionalFormatting sqref="A17:A45">
+    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A41">
+  <conditionalFormatting sqref="A26:A45">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
